--- a/csv/svm/svm_rawfdapolynomial_final.xlsx
+++ b/csv/svm/svm_rawfdapolynomial_final.xlsx
@@ -101,10 +101,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.037037037037037035</v>
+        <v>0.046296296296296294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03795166950355407</v>
+        <v>0.028688765527462346</v>
       </c>
     </row>
   </sheetData>
@@ -221,10 +221,10 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -244,13 +244,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
